--- a/code/results/SP/B/energy_estimation/energy.xlsx
+++ b/code/results/SP/B/energy_estimation/energy.xlsx
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3072.114945440021</v>
+        <v>3080.438335873646</v>
       </c>
       <c r="C2" t="n">
-        <v>3369.938917494177</v>
+        <v>3384.626621209841</v>
       </c>
     </row>
   </sheetData>
